--- a/悖论模拟干员名单20240421作者版.xlsx
+++ b/悖论模拟干员名单20240421作者版.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245839E7-7255-453A-8E19-840CB033E1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1C8ABB-C6F1-4000-B895-70898A6691BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12945" yWindow="3840" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="530">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1065,578 +1065,575 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024.04.21更新：增加每个作业好评率显示，删除好评率50以下的作业</t>
+    <t>maa://24702 (93.77), maa://25390 (97.49)</t>
+  </si>
+  <si>
+    <t>maa://35568 (100.0), maa://24632 (94.95), maa://33777 (100.0), *maa://32337 (75.0), maa://31167 (100.0), maa://21178 (92.86), *maa://24303 (33.33), maa://22746 (100.0), maa://22499 (81.82), maa://21197 (100.0), maa://21210 (100.0), maa://21155 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://21245 (80.69), *maa://22744 (78.95)</t>
+  </si>
+  <si>
+    <t>maa://21955 (90.0)</t>
+  </si>
+  <si>
+    <t>*maa://21476 (70.37)</t>
+  </si>
+  <si>
+    <t>maa://22765 (90.16), *maa://21915 (60.0)</t>
+  </si>
+  <si>
+    <t>maa://30766 (95.24)</t>
+  </si>
+  <si>
+    <t>maa://24999 (91.16), maa://25001 (84.38)</t>
+  </si>
+  <si>
+    <t>*maa://30764 (79.31)</t>
+  </si>
+  <si>
+    <t>maa://21441 (95.63)</t>
+  </si>
+  <si>
+    <t>*maa://21624 (76.92)</t>
+  </si>
+  <si>
+    <t>maa://24570 (96.12)</t>
+  </si>
+  <si>
+    <t>maa://21432 (90.68), maa://25198 (96.92), *maa://20795 (46.09)</t>
+  </si>
+  <si>
+    <t>maa://21261 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24368 (80.37)</t>
+  </si>
+  <si>
+    <t>maa://29753 (95.54)</t>
+  </si>
+  <si>
+    <t>maa://24465 (90.67), maa://25725 (81.03)</t>
+  </si>
+  <si>
+    <t>maa://31694 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://21247 (98.23), maa://22748 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24370 (95.12)</t>
+  </si>
+  <si>
+    <t>*maa://24371 (50.98)</t>
+  </si>
+  <si>
+    <t>maa://32651 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://21867 (92.04)</t>
+  </si>
+  <si>
+    <t>*maa://21248 (75.5), *maa://22728 (48.15)</t>
+  </si>
+  <si>
+    <t>maa://32656 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24304 (85.71), maa://21478 (93.33)</t>
+  </si>
+  <si>
+    <t>maa://22430 (86.3)</t>
+  </si>
+  <si>
+    <t>maa://24421 (91.95)</t>
+  </si>
+  <si>
+    <t>*maa://21956 (78.9), maa://22864 (86.87), maa://22730 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://24372 (97.06)</t>
+  </si>
+  <si>
+    <t>maa://25236 (94.12), *maa://21678 (50.0), *maa://22735 (50.0)</t>
+  </si>
+  <si>
+    <t>*maa://29063 (79.49), *maa://25311 (77.78), maa://32845 (100.0), *maa://22725 (4.92), maa://32405 (100.0), maa://29054 (100.0), maa://20690 (92.86), *maa://20982 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://24913 (92.0)</t>
+  </si>
+  <si>
+    <t>maa://34494 (100.0), *maa://21283 (48.61)</t>
+  </si>
+  <si>
+    <t>*maa://25175 (79.31)</t>
+  </si>
+  <si>
+    <t>maa://32721 (100.0), *maa://24373 (28.57)</t>
+  </si>
+  <si>
+    <t>maa://21895 (96.77), *maa://20793 (38.78), maa://22760 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24375 (90.32)</t>
+  </si>
+  <si>
+    <t>*maa://24374 (54.84)</t>
+  </si>
+  <si>
+    <t>maa://31628 (99.56), maa://25269 (95.37), maa://25580 (90.11), maa://25287 (90.68), *maa://25612 (64.69), maa://25597 (90.86), maa://25275 (95.92), maa://25281 (91.67), maa://25302 (96.81), *maa://25271 (79.88), maa://25270 (94.13), *maa://25633 (78.7), maa://25273 (96.78), maa://25591 (92.64), maa://24988 (92.63)</t>
+  </si>
+  <si>
+    <t>maa://24466 (96.97)</t>
+  </si>
+  <si>
+    <t>maa://22525 (92.31), maa://21284 (87.88)</t>
+  </si>
+  <si>
+    <t>maa://29768 (97.44), maa://27728 (95.79)</t>
+  </si>
+  <si>
+    <t>maa://21229 (85.71), maa://30807 (96.88), *maa://22767 (52.94), *maa://20796 (14.29)</t>
+  </si>
+  <si>
+    <t>maa://35931 (95.74)</t>
+  </si>
+  <si>
+    <t>maa://27410 (96.12), maa://29661 (98.68), maa://28038 (90.0)</t>
+  </si>
+  <si>
+    <t>*maa://30769 (71.43)</t>
+  </si>
+  <si>
+    <t>maa://24376 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://32534 (92.26), *maa://32434 (36.84)</t>
+  </si>
+  <si>
+    <t>maa://32532 (90.84)</t>
+  </si>
+  <si>
+    <t>maa://25176 (96.77)</t>
+  </si>
+  <si>
+    <t>maa://31270 (96.23), maa://27746 (82.61)</t>
+  </si>
+  <si>
+    <t>maa://34787 (88.89), *maa://30515 (71.76), *maa://24633 (53.79), *maa://20792 (12.0), *maa://29083 (28.57)</t>
+  </si>
+  <si>
+    <t>*maa://22880 (73.33), maa://20276 (81.31), *maa://22749 (60.0)</t>
+  </si>
+  <si>
+    <t>maa://22757 (93.33)</t>
+  </si>
+  <si>
+    <t>maa://24839 (98.97)</t>
+  </si>
+  <si>
+    <t>maa://28624 (90.32), maa://24957 (96.77)</t>
+  </si>
+  <si>
+    <t>maa://22762 (92.19)</t>
+  </si>
+  <si>
+    <t>*maa://24395 (47.06)</t>
+  </si>
+  <si>
+    <t>maa://21287 (87.5)</t>
+  </si>
+  <si>
+    <t>maa://26245 (95.73), maa://21288 (95.9)</t>
+  </si>
+  <si>
+    <t>*maa://21334 (57.89)</t>
+  </si>
+  <si>
+    <t>maa://24377 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://21679 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://31731 (91.3)</t>
+  </si>
+  <si>
+    <t>maa://27127 (94.0), maa://22751 (84.31)</t>
+  </si>
+  <si>
+    <t>maa://28071 (81.82)</t>
+  </si>
+  <si>
+    <t>*maa://30770 (67.86)</t>
+  </si>
+  <si>
+    <t>*maa://28440 (60.38), maa://28432 (92.59), maa://31400 (100.0), *maa://28650 (60.0)</t>
+  </si>
+  <si>
+    <t>maa://30442 (91.67)</t>
+  </si>
+  <si>
+    <t>maa://35926 (93.75)</t>
+  </si>
+  <si>
+    <t>maa://28065 (96.67)</t>
+  </si>
+  <si>
+    <t>maa://21919 (100.0), maa://21281 (90.0)</t>
+  </si>
+  <si>
+    <t>maa://31836 (85.71), maa://30381 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://22750 (95.65)</t>
+  </si>
+  <si>
+    <t>maa://32931 (90.48), *maa://21916 (58.93), maa://23252 (90.91), *maa://22759 (55.56)</t>
+  </si>
+  <si>
+    <t>*maa://22736 (77.97)</t>
+  </si>
+  <si>
+    <t>maa://28977 (93.65), *maa://23264 (62.26)</t>
+  </si>
+  <si>
+    <t>maa://22676 (91.25), *maa://22583 (74.36), *maa://22500 (51.61)</t>
+  </si>
+  <si>
+    <t>maa://23250 (97.81), maa://20107 (86.67), maa://22772 (100.0), *maa://22745 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://28504 (88.57)</t>
+  </si>
+  <si>
+    <t>maa://31270 (96.23), maa://27746 (82.61), maa://23890 (80.49), *maa://24940 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://29920 (90.28), maa://30162 (91.12), maa://29927 (89.58), maa://29655 (84.91), maa://30178 (91.38), maa://30164 (95.41), maa://29926 (94.12), maa://30190 (85.71), maa://30176 (96.39), maa://29925 (95.26), maa://29922 (95.14), maa://29924 (97.42), maa://29923 (96.83), maa://29921 (94.97), maa://30191 (81.18)</t>
+  </si>
+  <si>
+    <t>maa://24381 (84.62)</t>
+  </si>
+  <si>
+    <t>maa://30587 (90.6), *maa://29748 (72.97), *maa://29785 (15.38)</t>
+  </si>
+  <si>
+    <t>maa://24382 (94.12)</t>
+  </si>
+  <si>
+    <t>*maa://30968 (54.55)</t>
+  </si>
+  <si>
+    <t>*maa://30050 (40.0), *maa://23168 (63.16)</t>
+  </si>
+  <si>
+    <t>maa://21442 (99.39)</t>
+  </si>
+  <si>
+    <t>maa://26203 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://21956 (78.9), maa://22730 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://21280 (87.42), *maa://21239 (70.0)</t>
+  </si>
+  <si>
+    <t>*maa://24383 (63.64)</t>
+  </si>
+  <si>
+    <t>maa://24709 (96.25)</t>
+  </si>
+  <si>
+    <t>maa://23278 (96.24), maa://21386 (95.56)</t>
+  </si>
+  <si>
+    <t>*maa://35616 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://22742 (90.83), *maa://20791 (59.38)</t>
+  </si>
+  <si>
+    <t>maa://24617 (84.93), *maa://20790 (42.62)</t>
+  </si>
+  <si>
+    <t>maa://32509 (100.0), *maa://31008 (76.32), maa://27295 (80.0), maa://22754 (92.86), *maa://21746 (55.81)</t>
+  </si>
+  <si>
+    <t>maa://21291 (88.46)</t>
+  </si>
+  <si>
+    <t>*maa://22866 (32.65), maa://26222 (94.12)</t>
+  </si>
+  <si>
+    <t>maa://27395 (96.91), maa://22755 (86.9), *maa://22756 (42.86), *maa://21737 (10.61)</t>
+  </si>
+  <si>
+    <t>maa://22747 (95.41), maa://22501 (97.22)</t>
+  </si>
+  <si>
+    <t>maa://24709 (96.25), maa://21484 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://22471 (60.78), maa://22521 (96.72)</t>
+  </si>
+  <si>
+    <t>maa://23892 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://28648 (65.22), maa://22729 (94.17)</t>
+  </si>
+  <si>
+    <t>maa://24385 (96.0)</t>
+  </si>
+  <si>
+    <t>maa://24386 (98.0)</t>
+  </si>
+  <si>
+    <t>maa://29113 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://21993 (84.62)</t>
+  </si>
+  <si>
+    <t>maa://31212 (92.31), maa://24387 (81.25)</t>
+  </si>
+  <si>
+    <t>maa://24010 (84.72), maa://24021 (90.15), *maa://24018 (70.0), maa://34408 (100.0), maa://20109 (93.29), maa://22466 (93.1), maa://24037 (81.25), maa://22545 (100.0), *maa://22732 (48.28), *maa://24011 (28.0), *maa://24020 (66.67), *maa://31614 (33.33), maa://24105 (100.0), *maa://24038 (40.0), maa://31114 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30624 (88.24)</t>
+  </si>
+  <si>
+    <t>*maa://29765 (53.66), maa://23263 (92.75)</t>
+  </si>
+  <si>
+    <t>maa://28502 (100.0), maa://21181 (98.44), maa://21157 (100.0), maa://21211 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://32940 (100.0), maa://24388 (92.31)</t>
+  </si>
+  <si>
+    <t>maa://30711 (97.62), maa://30768 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24526 (92.13)</t>
+  </si>
+  <si>
+    <t>maa://24842 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://27613 (98.65)</t>
+  </si>
+  <si>
+    <t>maa://30713 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://27484 (94.44), maa://27396 (85.48), *maa://29890 (65.22), maa://27480 (81.25)</t>
+  </si>
+  <si>
+    <t>maa://21290 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://22399 (94.85), *maa://22758 (77.42)</t>
+  </si>
+  <si>
+    <t>maa://21411 (96.89)</t>
+  </si>
+  <si>
+    <t>maa://26223 (95.59)</t>
+  </si>
+  <si>
+    <t>maa://22753 (90.99), *maa://21485 (79.38)</t>
+  </si>
+  <si>
+    <t>maa://34957 (90.0), *maa://22768 (57.14)</t>
+  </si>
+  <si>
+    <t>maa://28501 (98.08), maa://28051 (95.45)</t>
+  </si>
+  <si>
+    <t>maa://21917 (96.15), maa://22741 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://31386 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://34946 (100.0), maa://20110 (88.71)</t>
+  </si>
+  <si>
+    <t>maa://21282 (99.28)</t>
+  </si>
+  <si>
+    <t>*maa://28503 (61.11)</t>
+  </si>
+  <si>
+    <t>maa://29988 (89.76), maa://23504 (92.17), *maa://25141 (75.73), *maa://22892 (37.6), *maa://22815 (25.0)</t>
+  </si>
+  <si>
+    <t>*maa://29890 (65.22)</t>
+  </si>
+  <si>
+    <t>maa://24389 (93.33)</t>
+  </si>
+  <si>
+    <t>maa://24390 (96.15)</t>
+  </si>
+  <si>
+    <t>*maa://32658 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://29863 (82.35), *maa://26013 (50.0), *maa://22752 (15.38)</t>
+  </si>
+  <si>
+    <t>maa://22739 (88.89)</t>
+  </si>
+  <si>
+    <t>maa://28711 (88.89), *maa://22740 (6.0), *maa://27377 (45.45), *maa://25174 (20.0)</t>
+  </si>
+  <si>
+    <t>maa://24391 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://29912 (100.0), maa://22516 (88.61), *maa://20794 (52.31)</t>
+  </si>
+  <si>
+    <t>maa://23669 (95.83)</t>
+  </si>
+  <si>
+    <t>maa://24392 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://22764 (97.14)</t>
+  </si>
+  <si>
+    <t>maa://26228 (94.44)</t>
+  </si>
+  <si>
+    <t>maa://24393 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://30709 (55.71)</t>
+  </si>
+  <si>
+    <t>*maa://21443 (76.4), *maa://23820 (28.57)</t>
+  </si>
+  <si>
+    <t>maa://23656 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://29652 (96.43)</t>
+  </si>
+  <si>
+    <t>maa://31215 (92.0), *maa://24516 (79.73), maa://26001 (92.16)</t>
+  </si>
+  <si>
+    <t>*maa://21289 (75.0)</t>
+  </si>
+  <si>
+    <t>*maa://33152 (58.33), *maa://22770 (28.57)</t>
+  </si>
+  <si>
+    <t>*maa://26191 (70.18)</t>
+  </si>
+  <si>
+    <t>*maa://24479 (79.63), *maa://21990 (54.17)</t>
+  </si>
+  <si>
+    <t>maa://26206 (95.56), *maa://22865 (42.86)</t>
+  </si>
+  <si>
+    <t>*maa://25021 (69.39), *maa://22733 (65.0), maa://22761 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://31203 (92.31), *maa://24394 (16.0)</t>
+  </si>
+  <si>
+    <t>*maa://22737 (27.84)</t>
+  </si>
+  <si>
+    <t>maa://21364 (80.0), *maa://22766 (72.34)</t>
+  </si>
+  <si>
+    <t>*maa://23911 (58.67), maa://27755 (89.13)</t>
+  </si>
+  <si>
+    <t>*maa://24313 (55.12), *maa://29784 (50.0)</t>
+  </si>
+  <si>
+    <t>*maa://21663 (59.18)</t>
+  </si>
+  <si>
+    <t>maa://22524 (94.53), maa://22432 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://29658 (93.75)</t>
+  </si>
+  <si>
+    <t>maa://31489 (90.0)</t>
+  </si>
+  <si>
+    <t>maa://29910 (95.83), maa://22523 (86.06), *maa://21440 (34.55)</t>
+  </si>
+  <si>
+    <t>maa://24023 (98.15)</t>
+  </si>
+  <si>
+    <t>*maa://34960 (16.67), *maa://24080 (66.79), maa://24690 (95.24), maa://26956 (100.0), maa://24815 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://32650 (66.67)</t>
+  </si>
+  <si>
+    <t>2024.04.21更新：增加每个作业好评率显示，删除好评率为0的作业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maa://24702 (93.77), maa://25390 (97.49)</t>
-  </si>
-  <si>
-    <t>maa://35568 (100.0), maa://24632 (94.95), maa://33777 (100.0), *maa://32337 (75.0), maa://31167 (100.0), maa://21178 (92.86), *maa://24303 (33.33), maa://22746 (100.0), maa://22499 (81.82), maa://21197 (100.0), maa://21210 (100.0), maa://21155 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://21245 (80.69), *maa://22744 (78.95)</t>
-  </si>
-  <si>
-    <t>maa://21955 (90.0)</t>
-  </si>
-  <si>
-    <t>*maa://21476 (70.37)</t>
-  </si>
-  <si>
-    <t>maa://22765 (90.16), *maa://21915 (60.0)</t>
-  </si>
-  <si>
-    <t>*maa://34206 (0.0), *maa://32237 (42.11), *maa://25695 (17.04)</t>
-  </si>
-  <si>
-    <t>maa://30766 (95.24)</t>
-  </si>
-  <si>
-    <t>maa://24999 (91.16), maa://25001 (84.38)</t>
-  </si>
-  <si>
-    <t>*maa://30764 (79.31)</t>
-  </si>
-  <si>
-    <t>*maa://36048 (0), *maa://30808 (60.71), *maa://22743 (71.3), maa://22734 (85.42)</t>
-  </si>
-  <si>
-    <t>maa://21441 (95.63)</t>
-  </si>
-  <si>
-    <t>*maa://21624 (76.92)</t>
-  </si>
-  <si>
-    <t>maa://24570 (96.12)</t>
-  </si>
-  <si>
-    <t>maa://21432 (90.68), maa://25198 (96.92), *maa://20795 (46.09)</t>
-  </si>
-  <si>
-    <t>maa://21261 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://23842 (92.77), maa://23848 (90.74), maa://23861 (81.82), maa://23862 (100.0), *maa://28036 (31.11), *maa://23850 (50.0), *maa://23879 (41.18), *maa://24177 (0), *maa://24112 (0), *maa://23946 (50.0), *maa://23952 (0), *maa://23864 (33.33), *maa://23877 (0.0)</t>
-  </si>
-  <si>
-    <t>maa://24368 (80.37)</t>
-  </si>
-  <si>
-    <t>maa://29753 (95.54)</t>
-  </si>
-  <si>
-    <t>maa://24465 (90.67), maa://25725 (81.03)</t>
-  </si>
-  <si>
-    <t>maa://31694 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://21247 (98.23), maa://22748 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24370 (95.12)</t>
-  </si>
-  <si>
-    <t>*maa://24371 (50.98)</t>
-  </si>
-  <si>
-    <t>maa://32651 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://21867 (92.04)</t>
-  </si>
-  <si>
-    <t>*maa://21248 (75.5), *maa://22728 (48.15)</t>
-  </si>
-  <si>
-    <t>maa://32656 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24304 (85.71), maa://21478 (93.33)</t>
-  </si>
-  <si>
-    <t>maa://22430 (86.3)</t>
-  </si>
-  <si>
-    <t>maa://24421 (91.95)</t>
-  </si>
-  <si>
-    <t>*maa://21956 (78.9), maa://22864 (86.87), maa://22730 (83.33)</t>
-  </si>
-  <si>
-    <t>maa://24372 (97.06)</t>
-  </si>
-  <si>
-    <t>maa://25236 (94.12), *maa://21678 (50.0), *maa://22735 (50.0)</t>
-  </si>
-  <si>
-    <t>*maa://29063 (79.49), *maa://25311 (77.78), maa://32845 (100.0), *maa://22725 (4.92), maa://32405 (100.0), maa://29054 (100.0), maa://20690 (92.86), *maa://20982 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://24913 (92.0)</t>
-  </si>
-  <si>
-    <t>maa://34494 (100.0), *maa://21283 (48.61)</t>
-  </si>
-  <si>
-    <t>*maa://25175 (79.31)</t>
-  </si>
-  <si>
-    <t>maa://32721 (100.0), *maa://24373 (28.57)</t>
-  </si>
-  <si>
-    <t>maa://21895 (96.77), *maa://20793 (38.78), maa://22760 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24375 (90.32)</t>
-  </si>
-  <si>
-    <t>*maa://24374 (54.84)</t>
-  </si>
-  <si>
-    <t>maa://31628 (99.56), maa://25269 (95.37), maa://25580 (90.11), maa://25287 (90.68), *maa://25612 (64.69), maa://25597 (90.86), maa://25275 (95.92), maa://25281 (91.67), maa://25302 (96.81), *maa://25271 (79.88), maa://25270 (94.13), *maa://25633 (78.7), maa://25273 (96.78), maa://25591 (92.64), maa://24988 (92.63)</t>
-  </si>
-  <si>
-    <t>maa://24466 (96.97)</t>
-  </si>
-  <si>
-    <t>maa://22525 (92.31), maa://21284 (87.88)</t>
-  </si>
-  <si>
-    <t>maa://29768 (97.44), maa://27728 (95.79)</t>
-  </si>
-  <si>
-    <t>maa://21229 (85.71), maa://30807 (96.88), *maa://22767 (52.94), *maa://20796 (14.29)</t>
-  </si>
-  <si>
-    <t>maa://35931 (95.74)</t>
-  </si>
-  <si>
-    <t>maa://27410 (96.12), maa://29661 (98.68), maa://28038 (90.0)</t>
-  </si>
-  <si>
-    <t>*maa://30769 (71.43)</t>
-  </si>
-  <si>
-    <t>maa://24376 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://32534 (92.26), *maa://32434 (36.84)</t>
-  </si>
-  <si>
-    <t>maa://32532 (90.84)</t>
-  </si>
-  <si>
-    <t>maa://25176 (96.77)</t>
-  </si>
-  <si>
-    <t>maa://31270 (96.23), maa://27746 (82.61)</t>
-  </si>
-  <si>
-    <t>maa://34787 (88.89), *maa://30515 (71.76), *maa://24633 (53.79), *maa://20792 (12.0), *maa://29083 (28.57)</t>
-  </si>
-  <si>
-    <t>*maa://22880 (73.33), maa://20276 (81.31), *maa://22749 (60.0)</t>
-  </si>
-  <si>
-    <t>maa://22757 (93.33)</t>
-  </si>
-  <si>
-    <t>maa://24839 (98.97)</t>
-  </si>
-  <si>
-    <t>maa://28624 (90.32), maa://24957 (96.77)</t>
-  </si>
-  <si>
-    <t>maa://22762 (92.19)</t>
-  </si>
-  <si>
-    <t>*maa://24395 (47.06)</t>
-  </si>
-  <si>
-    <t>maa://21287 (87.5)</t>
-  </si>
-  <si>
-    <t>maa://26245 (95.73), maa://21288 (95.9)</t>
-  </si>
-  <si>
-    <t>*maa://21334 (57.89)</t>
-  </si>
-  <si>
-    <t>maa://24377 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://21679 (75.0)</t>
-  </si>
-  <si>
-    <t>*maa://36023 (0), maa://22325 (96.03), maa://28347 (98.95), maa://22466 (93.1), *maa://34818 (0), maa://22400 (93.44), *maa://22732 (48.28), maa://31374 (100.0), maa://30096 (100.0), maa://27023 (80.0), maa://21182 (100.0), *maa://21259 (0.0), *maa://21257 (0), *maa://21258 (0), maa://21213 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://31731 (91.3)</t>
-  </si>
-  <si>
-    <t>maa://27127 (94.0), maa://22751 (84.31)</t>
-  </si>
-  <si>
-    <t>maa://29225 (95.24), *maa://35728 (0), maa://29297 (94.87), maa://29247 (100.0), maa://33104 (100.0), maa://22646 (84.21), *maa://31058 (0), maa://22644 (100.0), maa://29612 (100.0), *maa://29438 (0), *maa://29473 (0), *maa://29436 (0), *maa://29464 (0), *maa://29463 (0), *maa://29472 (0)</t>
-  </si>
-  <si>
-    <t>maa://28071 (81.82)</t>
-  </si>
-  <si>
-    <t>*maa://30770 (67.86)</t>
-  </si>
-  <si>
-    <t>*maa://28440 (60.38), maa://28432 (92.59), maa://31400 (100.0), *maa://28650 (60.0)</t>
-  </si>
-  <si>
-    <t>maa://30442 (91.67)</t>
-  </si>
-  <si>
-    <t>maa://35926 (93.75)</t>
-  </si>
-  <si>
-    <t>maa://28065 (96.67)</t>
-  </si>
-  <si>
-    <t>maa://21249 (94.59), maa://26254 (94.44), *maa://22738 (0.0)</t>
-  </si>
-  <si>
-    <t>maa://21919 (100.0), maa://21281 (90.0)</t>
-  </si>
-  <si>
-    <t>maa://31836 (85.71), maa://30381 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://22750 (95.65)</t>
-  </si>
-  <si>
-    <t>maa://32931 (90.48), *maa://21916 (58.93), maa://23252 (90.91), *maa://22759 (55.56)</t>
-  </si>
-  <si>
-    <t>*maa://22736 (77.97)</t>
-  </si>
-  <si>
-    <t>maa://28977 (93.65), *maa://23264 (62.26)</t>
-  </si>
-  <si>
-    <t>maa://22676 (91.25), *maa://22583 (74.36), *maa://22500 (51.61)</t>
-  </si>
-  <si>
-    <t>maa://23250 (97.81), maa://20107 (86.67), maa://22772 (100.0), *maa://22745 (50.0)</t>
-  </si>
-  <si>
-    <t>*maa://36232 (0), maa://34865 (90.0), maa://34717 (93.18), maa://35720 (100.0), maa://35792 (100.0), maa://35758 (100.0), *maa://35760 (0.0), *maa://35766 (0), *maa://35762 (0), *maa://35756 (0), *maa://35764 (0), *maa://35757 (0), *maa://35763 (0), *maa://35753 (0), maa://28734 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://28504 (88.57)</t>
-  </si>
-  <si>
-    <t>maa://31270 (96.23), maa://27746 (82.61), maa://23890 (80.49), *maa://24940 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://29920 (90.28), maa://30162 (91.12), maa://29927 (89.58), maa://29655 (84.91), maa://30178 (91.38), maa://30164 (95.41), maa://29926 (94.12), maa://30190 (85.71), maa://30176 (96.39), maa://29925 (95.26), maa://29922 (95.14), maa://29924 (97.42), maa://29923 (96.83), maa://29921 (94.97), maa://30191 (81.18)</t>
-  </si>
-  <si>
-    <t>maa://24381 (84.62)</t>
-  </si>
-  <si>
-    <t>maa://30587 (90.6), *maa://29748 (72.97), *maa://29785 (15.38)</t>
-  </si>
-  <si>
-    <t>maa://24382 (94.12)</t>
-  </si>
-  <si>
-    <t>*maa://30968 (54.55)</t>
-  </si>
-  <si>
-    <t>*maa://30050 (40.0), *maa://23168 (63.16)</t>
-  </si>
-  <si>
-    <t>maa://21442 (99.39)</t>
-  </si>
-  <si>
-    <t>maa://26203 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://21956 (78.9), maa://22730 (83.33)</t>
-  </si>
-  <si>
-    <t>maa://21280 (87.42), *maa://21239 (70.0)</t>
-  </si>
-  <si>
-    <t>*maa://24383 (63.64)</t>
-  </si>
-  <si>
-    <t>maa://24709 (96.25)</t>
-  </si>
-  <si>
-    <t>maa://23278 (96.24), maa://21386 (95.56)</t>
-  </si>
-  <si>
-    <t>*maa://35616 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://22742 (90.83), *maa://20791 (59.38)</t>
-  </si>
-  <si>
-    <t>maa://24617 (84.93), *maa://20790 (42.62)</t>
-  </si>
-  <si>
-    <t>maa://32509 (100.0), *maa://31008 (76.32), maa://27295 (80.0), maa://22754 (92.86), *maa://21746 (55.81)</t>
-  </si>
-  <si>
-    <t>maa://21291 (88.46)</t>
-  </si>
-  <si>
-    <t>*maa://22866 (32.65), maa://26222 (94.12)</t>
-  </si>
-  <si>
-    <t>maa://27395 (96.91), maa://22755 (86.9), *maa://22756 (42.86), *maa://21737 (10.61)</t>
-  </si>
-  <si>
-    <t>maa://22747 (95.41), maa://22501 (97.22)</t>
-  </si>
-  <si>
-    <t>maa://24709 (96.25), maa://21484 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://22471 (60.78), maa://22521 (96.72)</t>
-  </si>
-  <si>
-    <t>maa://23892 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://28648 (65.22), maa://22729 (94.17)</t>
-  </si>
-  <si>
-    <t>maa://24385 (96.0)</t>
-  </si>
-  <si>
-    <t>maa://24386 (98.0)</t>
-  </si>
-  <si>
-    <t>maa://29113 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://21993 (84.62)</t>
-  </si>
-  <si>
-    <t>*maa://26920 (0.0)</t>
-  </si>
-  <si>
-    <t>maa://31212 (92.31), maa://24387 (81.25)</t>
-  </si>
-  <si>
-    <t>maa://24010 (84.72), maa://24021 (90.15), *maa://24018 (70.0), maa://34408 (100.0), maa://20109 (93.29), maa://22466 (93.1), maa://24037 (81.25), maa://22545 (100.0), *maa://22732 (48.28), *maa://24011 (28.0), *maa://24020 (66.67), *maa://31614 (33.33), maa://24105 (100.0), *maa://24038 (40.0), maa://31114 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://30624 (88.24)</t>
-  </si>
-  <si>
-    <t>*maa://29765 (53.66), maa://23263 (92.75)</t>
-  </si>
-  <si>
-    <t>maa://28502 (100.0), maa://21181 (98.44), maa://21157 (100.0), maa://21211 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://32940 (100.0), maa://24388 (92.31)</t>
-  </si>
-  <si>
-    <t>maa://30711 (97.62), maa://30768 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24526 (92.13)</t>
-  </si>
-  <si>
-    <t>maa://24842 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://27613 (98.65)</t>
-  </si>
-  <si>
-    <t>maa://30713 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://27484 (94.44), maa://27396 (85.48), *maa://29890 (65.22), maa://27480 (81.25)</t>
-  </si>
-  <si>
-    <t>maa://21290 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://22399 (94.85), *maa://22758 (77.42)</t>
-  </si>
-  <si>
-    <t>maa://21411 (96.89)</t>
-  </si>
-  <si>
-    <t>maa://26223 (95.59)</t>
-  </si>
-  <si>
-    <t>maa://22301 (97.9), maa://22726 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://22753 (90.99), *maa://21485 (79.38)</t>
-  </si>
-  <si>
-    <t>maa://34957 (90.0), *maa://22768 (57.14)</t>
-  </si>
-  <si>
-    <t>maa://28501 (98.08), maa://28051 (95.45)</t>
-  </si>
-  <si>
-    <t>maa://21917 (96.15), maa://22741 (80.0)</t>
-  </si>
-  <si>
-    <t>maa://31386 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://34946 (100.0), maa://20110 (88.71)</t>
-  </si>
-  <si>
-    <t>maa://21282 (99.28)</t>
-  </si>
-  <si>
-    <t>*maa://28503 (61.11)</t>
-  </si>
-  <si>
-    <t>maa://29988 (89.76), maa://23504 (92.17), *maa://25141 (75.73), *maa://22892 (37.6), *maa://22815 (25.0)</t>
-  </si>
-  <si>
-    <t>*maa://29890 (65.22)</t>
-  </si>
-  <si>
-    <t>maa://24389 (93.33)</t>
-  </si>
-  <si>
-    <t>maa://21246 (91.95), *maa://22731 (0.0)</t>
-  </si>
-  <si>
-    <t>maa://24390 (96.15)</t>
-  </si>
-  <si>
-    <t>*maa://32658 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://29863 (82.35), *maa://26013 (50.0), *maa://22752 (15.38)</t>
-  </si>
-  <si>
-    <t>maa://22739 (88.89)</t>
-  </si>
-  <si>
-    <t>maa://34732 (98.21), maa://34778 (91.38), maa://34834 (94.87), maa://29619 (95.24), maa://29653 (100.0), maa://34753 (100.0), maa://23983 (94.29), *maa://35772 (0), maa://34790 (92.86), *maa://23990 (78.51), maa://24010 (84.72), maa://24001 (91.6), maa://23986 (86.31), maa://23997 (90.66), *maa://24003 (67.22)</t>
-  </si>
-  <si>
-    <t>maa://28711 (88.89), *maa://22740 (6.0), *maa://27377 (45.45), *maa://25174 (20.0)</t>
-  </si>
-  <si>
-    <t>maa://24391 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://29912 (100.0), maa://22516 (88.61), *maa://20794 (52.31)</t>
-  </si>
-  <si>
-    <t>maa://23669 (95.83)</t>
-  </si>
-  <si>
-    <t>maa://24392 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://22764 (97.14)</t>
-  </si>
-  <si>
-    <t>maa://26228 (94.44)</t>
-  </si>
-  <si>
-    <t>maa://24393 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://30709 (55.71)</t>
-  </si>
-  <si>
-    <t>*maa://21443 (76.4), *maa://23820 (28.57)</t>
-  </si>
-  <si>
-    <t>maa://23656 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://29652 (96.43)</t>
-  </si>
-  <si>
-    <t>maa://31215 (92.0), *maa://24516 (79.73), maa://26001 (92.16)</t>
-  </si>
-  <si>
-    <t>*maa://21730 (16.67), maa://25251 (93.75)</t>
-  </si>
-  <si>
-    <t>*maa://21289 (75.0)</t>
-  </si>
-  <si>
-    <t>*maa://30062 (57.69), *maa://26209 (13.64), *maa://30028 (0)</t>
-  </si>
-  <si>
-    <t>*maa://33152 (58.33), *maa://22770 (28.57)</t>
-  </si>
-  <si>
-    <t>*maa://26191 (70.18)</t>
-  </si>
-  <si>
-    <t>*maa://24479 (79.63), *maa://21990 (54.17)</t>
-  </si>
-  <si>
-    <t>maa://26206 (95.56), *maa://22865 (42.86)</t>
-  </si>
-  <si>
-    <t>*maa://25021 (69.39), *maa://22733 (65.0), maa://22761 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://31203 (92.31), *maa://24394 (16.0)</t>
-  </si>
-  <si>
-    <t>*maa://30062 (57.69), maa://28932 (80.52), *maa://20106 (62.5), *maa://32262 (0), *maa://32261 (0), *maa://26209 (13.64), *maa://30028 (0), *maa://22769 (68.0)</t>
-  </si>
-  <si>
-    <t>*maa://22737 (27.84)</t>
-  </si>
-  <si>
-    <t>maa://21364 (80.0), *maa://22766 (72.34)</t>
-  </si>
-  <si>
-    <t>*maa://23911 (58.67), maa://27755 (89.13)</t>
-  </si>
-  <si>
-    <t>*maa://24313 (55.12), *maa://29784 (50.0)</t>
-  </si>
-  <si>
-    <t>*maa://21663 (59.18)</t>
-  </si>
-  <si>
-    <t>maa://22524 (94.53), maa://22432 (83.33)</t>
-  </si>
-  <si>
-    <t>maa://29658 (93.75)</t>
-  </si>
-  <si>
-    <t>maa://31489 (90.0)</t>
-  </si>
-  <si>
-    <t>maa://29910 (95.83), maa://22523 (86.06), *maa://21440 (34.55)</t>
-  </si>
-  <si>
-    <t>maa://24621 (96.81), maa://20108 (95.69), maa://22771 (90.91), *maa://22428 (0.0)</t>
-  </si>
-  <si>
-    <t>maa://30511 (90.0), *maa://29760 (37.5), *maa://23891 (0.0)</t>
-  </si>
-  <si>
-    <t>maa://24023 (98.15)</t>
-  </si>
-  <si>
-    <t>*maa://34960 (16.67), *maa://24080 (66.79), maa://24690 (95.24), maa://26956 (100.0), maa://24815 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://32650 (66.67)</t>
+    <t>*maa://32237 (42.11), *maa://25695 (17.04)</t>
+  </si>
+  <si>
+    <t>*maa://30808 (60.71), *maa://22743 (70.64), maa://22734 (85.42)</t>
+  </si>
+  <si>
+    <t>maa://23842 (92.77), maa://23848 (90.74), maa://23861 (81.82), maa://23862 (100.0), *maa://28036 (31.11), *maa://23850 (50.0), *maa://23879 (41.18), *maa://23946 (50.0), *maa://23864 (33.33)</t>
+  </si>
+  <si>
+    <t>maa://22325 (96.03), maa://28347 (98.95), maa://22466 (93.1), maa://22400 (93.44), *maa://22732 (48.28), maa://31374 (100.0), maa://30096 (100.0), maa://27023 (80.0), maa://21182 (100.0), maa://21213 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://29225 (95.24), maa://29297 (94.87), maa://29247 (100.0), maa://33104 (100.0), maa://22646 (84.21), maa://22644 (100.0), maa://29612 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://21249 (94.59), maa://26254 (94.44)</t>
+  </si>
+  <si>
+    <t>maa://34865 (90.0), maa://34717 (93.18), maa://35720 (100.0), maa://35792 (100.0), maa://35758 (100.0), maa://28734 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://22301 (97.92), maa://22726 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://21246 (91.95)</t>
+  </si>
+  <si>
+    <t>maa://34732 (98.21), maa://34778 (91.38), maa://34834 (94.87), maa://29619 (95.24), maa://29653 (100.0), maa://34753 (100.0), maa://23983 (94.29), maa://34790 (92.86), *maa://23990 (78.51), maa://24010 (84.72), maa://24001 (91.6), maa://23986 (86.31), maa://23997 (90.66), *maa://24003 (67.22)</t>
+  </si>
+  <si>
+    <t>*maa://21730 (16.67), maa://25251 (93.88)</t>
+  </si>
+  <si>
+    <t>*maa://30062 (57.69), *maa://26209 (13.64)</t>
+  </si>
+  <si>
+    <t>*maa://30062 (57.69), maa://28932 (80.52), *maa://20106 (62.5), *maa://26209 (13.64), *maa://22769 (68.0)</t>
+  </si>
+  <si>
+    <t>maa://24621 (96.81), maa://20108 (95.69), maa://22771 (90.91)</t>
+  </si>
+  <si>
+    <t>maa://30511 (90.0), *maa://29760 (37.5)</t>
   </si>
 </sst>
 </file>
@@ -1990,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2112,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -2130,7 +2127,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>157</v>
@@ -2148,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>12</v>
@@ -2163,10 +2160,10 @@
         <v>268</v>
       </c>
       <c r="Z2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>295</v>
@@ -2175,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2195,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>126</v>
@@ -2204,16 +2201,16 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>158</v>
       </c>
       <c r="N3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>418</v>
+        <v>520</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>204</v>
@@ -2222,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>243</v>
@@ -2231,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>269</v>
@@ -2240,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>296</v>
@@ -2249,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -2260,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>69</v>
@@ -2296,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>244</v>
@@ -2314,16 +2311,16 @@
         <v>1</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>297</v>
       </c>
       <c r="AD4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -2334,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>70</v>
@@ -2352,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>160</v>
@@ -2361,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>206</v>
@@ -2379,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>271</v>
@@ -2388,7 +2385,7 @@
         <v>3</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>298</v>
@@ -2417,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>129</v>
@@ -2426,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>161</v>
@@ -2435,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>207</v>
@@ -2462,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>299</v>
@@ -2471,7 +2468,7 @@
         <v>2</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -2482,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>72</v>
@@ -2500,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>162</v>
@@ -2509,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>208</v>
@@ -2518,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>247</v>
@@ -2527,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>273</v>
@@ -2545,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -2556,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
@@ -2565,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>131</v>
@@ -2583,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>209</v>
@@ -2601,16 +2598,16 @@
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>274</v>
       </c>
       <c r="Z8" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>301</v>
@@ -2619,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -2630,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
@@ -2648,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>164</v>
@@ -2657,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>210</v>
@@ -2666,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>249</v>
@@ -2675,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>275</v>
@@ -2684,7 +2681,7 @@
         <v>4</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>302</v>
@@ -2693,7 +2690,7 @@
         <v>2</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -2701,10 +2698,10 @@
         <v>48</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>347</v>
+        <v>515</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>75</v>
@@ -2713,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>133</v>
@@ -2722,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>165</v>
@@ -2731,7 +2728,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>211</v>
@@ -2740,7 +2737,7 @@
         <v>4</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>250</v>
@@ -2749,7 +2746,7 @@
         <v>2</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>276</v>
@@ -2758,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>303</v>
@@ -2767,7 +2764,7 @@
         <v>3</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -2796,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>166</v>
@@ -2814,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>251</v>
@@ -2832,7 +2829,7 @@
         <v>3</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>304</v>
@@ -2841,7 +2838,7 @@
         <v>2</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -2852,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>77</v>
@@ -2861,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>135</v>
@@ -2897,7 +2894,7 @@
         <v>2</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>278</v>
@@ -2906,16 +2903,16 @@
         <v>1</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>305</v>
       </c>
       <c r="AD12" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -2926,7 +2923,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>78</v>
@@ -2935,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>136</v>
@@ -2953,7 +2950,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>214</v>
@@ -2962,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>253</v>
@@ -2971,7 +2968,7 @@
         <v>2</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>279</v>
@@ -2980,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>306</v>
@@ -2989,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -3000,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>79</v>
@@ -3009,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>137</v>
@@ -3018,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>169</v>
@@ -3027,7 +3024,7 @@
         <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>215</v>
@@ -3036,7 +3033,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>254</v>
@@ -3054,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>307</v>
@@ -3071,10 +3068,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>351</v>
+        <v>516</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>80</v>
@@ -3083,7 +3080,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>138</v>
@@ -3092,16 +3089,16 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>170</v>
       </c>
       <c r="N15" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>427</v>
+        <v>521</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>216</v>
@@ -3110,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>255</v>
@@ -3137,7 +3134,7 @@
         <v>2</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -3148,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>81</v>
@@ -3166,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>171</v>
@@ -3175,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>217</v>
@@ -3184,7 +3181,7 @@
         <v>2</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>256</v>
@@ -3193,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>282</v>
@@ -3202,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>309</v>
@@ -3211,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -3222,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>82</v>
@@ -3231,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>140</v>
@@ -3240,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>172</v>
@@ -3249,7 +3246,7 @@
         <v>4</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>218</v>
@@ -3296,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>83</v>
@@ -3305,16 +3302,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>141</v>
       </c>
       <c r="J18" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>408</v>
+        <v>518</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>173</v>
@@ -3323,7 +3320,7 @@
         <v>15</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>219</v>
@@ -3332,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>258</v>
@@ -3341,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>284</v>
@@ -3350,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>311</v>
@@ -3359,7 +3356,7 @@
         <v>2</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -3406,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>259</v>
@@ -3415,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>285</v>
@@ -3424,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>312</v>
@@ -3433,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -3444,7 +3441,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -3453,7 +3450,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>143</v>
@@ -3480,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>260</v>
@@ -3518,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
@@ -3527,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>144</v>
@@ -3536,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>176</v>
@@ -3545,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>222</v>
@@ -3554,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>261</v>
@@ -3563,7 +3560,7 @@
         <v>2</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>287</v>
@@ -3572,7 +3569,7 @@
         <v>2</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>314</v>
@@ -3581,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -3601,7 +3598,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>145</v>
@@ -3610,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>177</v>
@@ -3625,10 +3622,7 @@
         <v>223</v>
       </c>
       <c r="R22" s="1">
-        <v>1</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>262</v>
@@ -3637,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>288</v>
@@ -3646,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>315</v>
@@ -3655,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -3663,10 +3657,10 @@
         <v>61</v>
       </c>
       <c r="B23" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>357</v>
+        <v>517</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>88</v>
@@ -3693,7 +3687,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>224</v>
@@ -3702,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>263</v>
@@ -3711,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>289</v>
@@ -3720,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>316</v>
@@ -3729,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -3740,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>89</v>
@@ -3785,7 +3779,7 @@
         <v>5</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>290</v>
@@ -3803,7 +3797,7 @@
         <v>3</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -3814,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>90</v>
@@ -3823,16 +3817,16 @@
         <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>148</v>
       </c>
       <c r="J25" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>411</v>
+        <v>519</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>180</v>
@@ -3841,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>226</v>
@@ -3850,7 +3844,7 @@
         <v>15</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>265</v>
@@ -3859,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>291</v>
@@ -3868,16 +3862,16 @@
         <v>3</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>318</v>
       </c>
       <c r="AD25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -3897,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>149</v>
@@ -3915,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>227</v>
@@ -3933,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>292</v>
@@ -3948,10 +3942,10 @@
         <v>319</v>
       </c>
       <c r="AD26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -3971,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>150</v>
@@ -3980,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>182</v>
@@ -3998,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>267</v>
@@ -4025,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -4036,7 +4030,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
@@ -4054,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>183</v>
@@ -4072,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>18</v>
@@ -4110,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>94</v>
@@ -4119,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>152</v>
@@ -4128,7 +4122,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>184</v>
@@ -4137,7 +4131,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>230</v>
@@ -4146,7 +4140,7 @@
         <v>4</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>23</v>
@@ -4173,7 +4167,7 @@
         <v>5</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -4202,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>185</v>
@@ -4211,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>231</v>
@@ -4220,7 +4214,7 @@
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>31</v>
@@ -4267,7 +4261,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>154</v>
@@ -4276,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>186</v>
@@ -4294,7 +4288,7 @@
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>37</v>
@@ -4323,7 +4317,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>155</v>
@@ -4332,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>187</v>
@@ -4341,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>233</v>
@@ -4388,7 +4382,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>234</v>
@@ -4444,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>20</v>
@@ -4453,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4491,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>334</v>
@@ -4511,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>27</v>
@@ -4538,7 +4532,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>335</v>
@@ -4558,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>39</v>
@@ -4576,7 +4570,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>238</v>
@@ -4628,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>239</v>
@@ -4637,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>337</v>
@@ -4660,7 +4654,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>194</v>
@@ -4669,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>240</v>
@@ -4703,7 +4697,7 @@
         <v>2</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>241</v>
@@ -4726,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>196</v>
@@ -4735,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>242</v>
@@ -4792,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>198</v>
@@ -4824,7 +4818,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>199</v>
@@ -4856,7 +4850,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>200</v>
@@ -4890,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>201</v>
@@ -4913,7 +4907,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>202</v>
@@ -4950,7 +4944,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>340</v>
+        <v>514</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -5004,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -5015,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -5026,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -5048,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -5070,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -5092,7 +5086,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">

--- a/悖论模拟干员名单20240421作者版.xlsx
+++ b/悖论模拟干员名单20240421作者版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1C8ABB-C6F1-4000-B895-70898A6691BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D9593D-D9C4-4E69-9EDA-749CB15FA76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12945" yWindow="3840" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10530" yWindow="3795" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1019,10 +1019,6 @@
     <t>空构</t>
   </si>
   <si>
-    <t>*为好评率不高于80%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -1068,9 +1064,6 @@
     <t>maa://24702 (93.77), maa://25390 (97.49)</t>
   </si>
   <si>
-    <t>maa://35568 (100.0), maa://24632 (94.95), maa://33777 (100.0), *maa://32337 (75.0), maa://31167 (100.0), maa://21178 (92.86), *maa://24303 (33.33), maa://22746 (100.0), maa://22499 (81.82), maa://21197 (100.0), maa://21210 (100.0), maa://21155 (100.0)</t>
-  </si>
-  <si>
     <t>maa://21245 (80.69), *maa://22744 (78.95)</t>
   </si>
   <si>
@@ -1101,9 +1094,6 @@
     <t>maa://24570 (96.12)</t>
   </si>
   <si>
-    <t>maa://21432 (90.68), maa://25198 (96.92), *maa://20795 (46.09)</t>
-  </si>
-  <si>
     <t>maa://21261 (100.0)</t>
   </si>
   <si>
@@ -1134,9 +1124,6 @@
     <t>maa://21867 (92.04)</t>
   </si>
   <si>
-    <t>*maa://21248 (75.5), *maa://22728 (48.15)</t>
-  </si>
-  <si>
     <t>maa://32656 (100.0)</t>
   </si>
   <si>
@@ -1155,27 +1142,12 @@
     <t>maa://24372 (97.06)</t>
   </si>
   <si>
-    <t>maa://25236 (94.12), *maa://21678 (50.0), *maa://22735 (50.0)</t>
-  </si>
-  <si>
-    <t>*maa://29063 (79.49), *maa://25311 (77.78), maa://32845 (100.0), *maa://22725 (4.92), maa://32405 (100.0), maa://29054 (100.0), maa://20690 (92.86), *maa://20982 (66.67)</t>
-  </si>
-  <si>
     <t>maa://24913 (92.0)</t>
   </si>
   <si>
-    <t>maa://34494 (100.0), *maa://21283 (48.61)</t>
-  </si>
-  <si>
     <t>*maa://25175 (79.31)</t>
   </si>
   <si>
-    <t>maa://32721 (100.0), *maa://24373 (28.57)</t>
-  </si>
-  <si>
-    <t>maa://21895 (96.77), *maa://20793 (38.78), maa://22760 (100.0)</t>
-  </si>
-  <si>
     <t>maa://24375 (90.32)</t>
   </si>
   <si>
@@ -1194,12 +1166,6 @@
     <t>maa://29768 (97.44), maa://27728 (95.79)</t>
   </si>
   <si>
-    <t>maa://21229 (85.71), maa://30807 (96.88), *maa://22767 (52.94), *maa://20796 (14.29)</t>
-  </si>
-  <si>
-    <t>maa://35931 (95.74)</t>
-  </si>
-  <si>
     <t>maa://27410 (96.12), maa://29661 (98.68), maa://28038 (90.0)</t>
   </si>
   <si>
@@ -1209,9 +1175,6 @@
     <t>maa://24376 (100.0)</t>
   </si>
   <si>
-    <t>maa://32534 (92.26), *maa://32434 (36.84)</t>
-  </si>
-  <si>
     <t>maa://32532 (90.84)</t>
   </si>
   <si>
@@ -1221,9 +1184,6 @@
     <t>maa://31270 (96.23), maa://27746 (82.61)</t>
   </si>
   <si>
-    <t>maa://34787 (88.89), *maa://30515 (71.76), *maa://24633 (53.79), *maa://20792 (12.0), *maa://29083 (28.57)</t>
-  </si>
-  <si>
     <t>*maa://22880 (73.33), maa://20276 (81.31), *maa://22749 (60.0)</t>
   </si>
   <si>
@@ -1239,9 +1199,6 @@
     <t>maa://22762 (92.19)</t>
   </si>
   <si>
-    <t>*maa://24395 (47.06)</t>
-  </si>
-  <si>
     <t>maa://21287 (87.5)</t>
   </si>
   <si>
@@ -1302,9 +1259,6 @@
     <t>maa://22676 (91.25), *maa://22583 (74.36), *maa://22500 (51.61)</t>
   </si>
   <si>
-    <t>maa://23250 (97.81), maa://20107 (86.67), maa://22772 (100.0), *maa://22745 (50.0)</t>
-  </si>
-  <si>
     <t>maa://28504 (88.57)</t>
   </si>
   <si>
@@ -1317,18 +1271,12 @@
     <t>maa://24381 (84.62)</t>
   </si>
   <si>
-    <t>maa://30587 (90.6), *maa://29748 (72.97), *maa://29785 (15.38)</t>
-  </si>
-  <si>
     <t>maa://24382 (94.12)</t>
   </si>
   <si>
     <t>*maa://30968 (54.55)</t>
   </si>
   <si>
-    <t>*maa://30050 (40.0), *maa://23168 (63.16)</t>
-  </si>
-  <si>
     <t>maa://21442 (99.39)</t>
   </si>
   <si>
@@ -1350,27 +1298,12 @@
     <t>maa://23278 (96.24), maa://21386 (95.56)</t>
   </si>
   <si>
-    <t>*maa://35616 (50.0)</t>
-  </si>
-  <si>
     <t>maa://22742 (90.83), *maa://20791 (59.38)</t>
   </si>
   <si>
-    <t>maa://24617 (84.93), *maa://20790 (42.62)</t>
-  </si>
-  <si>
-    <t>maa://32509 (100.0), *maa://31008 (76.32), maa://27295 (80.0), maa://22754 (92.86), *maa://21746 (55.81)</t>
-  </si>
-  <si>
     <t>maa://21291 (88.46)</t>
   </si>
   <si>
-    <t>*maa://22866 (32.65), maa://26222 (94.12)</t>
-  </si>
-  <si>
-    <t>maa://27395 (96.91), maa://22755 (86.9), *maa://22756 (42.86), *maa://21737 (10.61)</t>
-  </si>
-  <si>
     <t>maa://22747 (95.41), maa://22501 (97.22)</t>
   </si>
   <si>
@@ -1401,9 +1334,6 @@
     <t>maa://31212 (92.31), maa://24387 (81.25)</t>
   </si>
   <si>
-    <t>maa://24010 (84.72), maa://24021 (90.15), *maa://24018 (70.0), maa://34408 (100.0), maa://20109 (93.29), maa://22466 (93.1), maa://24037 (81.25), maa://22545 (100.0), *maa://22732 (48.28), *maa://24011 (28.0), *maa://24020 (66.67), *maa://31614 (33.33), maa://24105 (100.0), *maa://24038 (40.0), maa://31114 (100.0)</t>
-  </si>
-  <si>
     <t>maa://30624 (88.24)</t>
   </si>
   <si>
@@ -1455,9 +1385,6 @@
     <t>maa://28501 (98.08), maa://28051 (95.45)</t>
   </si>
   <si>
-    <t>maa://21917 (96.15), maa://22741 (80.0)</t>
-  </si>
-  <si>
     <t>maa://31386 (100.0)</t>
   </si>
   <si>
@@ -1470,9 +1397,6 @@
     <t>*maa://28503 (61.11)</t>
   </si>
   <si>
-    <t>maa://29988 (89.76), maa://23504 (92.17), *maa://25141 (75.73), *maa://22892 (37.6), *maa://22815 (25.0)</t>
-  </si>
-  <si>
     <t>*maa://29890 (65.22)</t>
   </si>
   <si>
@@ -1482,18 +1406,9 @@
     <t>maa://24390 (96.15)</t>
   </si>
   <si>
-    <t>*maa://32658 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://29863 (82.35), *maa://26013 (50.0), *maa://22752 (15.38)</t>
-  </si>
-  <si>
     <t>maa://22739 (88.89)</t>
   </si>
   <si>
-    <t>maa://28711 (88.89), *maa://22740 (6.0), *maa://27377 (45.45), *maa://25174 (20.0)</t>
-  </si>
-  <si>
     <t>maa://24391 (100.0)</t>
   </si>
   <si>
@@ -1518,9 +1433,6 @@
     <t>*maa://30709 (55.71)</t>
   </si>
   <si>
-    <t>*maa://21443 (76.4), *maa://23820 (28.57)</t>
-  </si>
-  <si>
     <t>maa://23656 (100.0)</t>
   </si>
   <si>
@@ -1533,36 +1445,18 @@
     <t>*maa://21289 (75.0)</t>
   </si>
   <si>
-    <t>*maa://33152 (58.33), *maa://22770 (28.57)</t>
-  </si>
-  <si>
     <t>*maa://26191 (70.18)</t>
   </si>
   <si>
     <t>*maa://24479 (79.63), *maa://21990 (54.17)</t>
   </si>
   <si>
-    <t>maa://26206 (95.56), *maa://22865 (42.86)</t>
-  </si>
-  <si>
     <t>*maa://25021 (69.39), *maa://22733 (65.0), maa://22761 (100.0)</t>
   </si>
   <si>
-    <t>maa://31203 (92.31), *maa://24394 (16.0)</t>
-  </si>
-  <si>
-    <t>*maa://22737 (27.84)</t>
-  </si>
-  <si>
-    <t>maa://21364 (80.0), *maa://22766 (72.34)</t>
-  </si>
-  <si>
     <t>*maa://23911 (58.67), maa://27755 (89.13)</t>
   </si>
   <si>
-    <t>*maa://24313 (55.12), *maa://29784 (50.0)</t>
-  </si>
-  <si>
     <t>*maa://21663 (59.18)</t>
   </si>
   <si>
@@ -1575,13 +1469,7 @@
     <t>maa://31489 (90.0)</t>
   </si>
   <si>
-    <t>maa://29910 (95.83), maa://22523 (86.06), *maa://21440 (34.55)</t>
-  </si>
-  <si>
     <t>maa://24023 (98.15)</t>
-  </si>
-  <si>
-    <t>*maa://34960 (16.67), *maa://24080 (66.79), maa://24690 (95.24), maa://26956 (100.0), maa://24815 (100.0)</t>
   </si>
   <si>
     <t>*maa://32650 (66.67)</t>
@@ -1591,18 +1479,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*maa://32237 (42.11), *maa://25695 (17.04)</t>
-  </si>
-  <si>
     <t>*maa://30808 (60.71), *maa://22743 (70.64), maa://22734 (85.42)</t>
   </si>
   <si>
-    <t>maa://23842 (92.77), maa://23848 (90.74), maa://23861 (81.82), maa://23862 (100.0), *maa://28036 (31.11), *maa://23850 (50.0), *maa://23879 (41.18), *maa://23946 (50.0), *maa://23864 (33.33)</t>
-  </si>
-  <si>
-    <t>maa://22325 (96.03), maa://28347 (98.95), maa://22466 (93.1), maa://22400 (93.44), *maa://22732 (48.28), maa://31374 (100.0), maa://30096 (100.0), maa://27023 (80.0), maa://21182 (100.0), maa://21213 (100.0)</t>
-  </si>
-  <si>
     <t>maa://29225 (95.24), maa://29297 (94.87), maa://29247 (100.0), maa://33104 (100.0), maa://22646 (84.21), maa://22644 (100.0), maa://29612 (100.0)</t>
   </si>
   <si>
@@ -1621,26 +1500,147 @@
     <t>maa://34732 (98.21), maa://34778 (91.38), maa://34834 (94.87), maa://29619 (95.24), maa://29653 (100.0), maa://34753 (100.0), maa://23983 (94.29), maa://34790 (92.86), *maa://23990 (78.51), maa://24010 (84.72), maa://24001 (91.6), maa://23986 (86.31), maa://23997 (90.66), *maa://24003 (67.22)</t>
   </si>
   <si>
-    <t>*maa://21730 (16.67), maa://25251 (93.88)</t>
-  </si>
-  <si>
-    <t>*maa://30062 (57.69), *maa://26209 (13.64)</t>
-  </si>
-  <si>
-    <t>*maa://30062 (57.69), maa://28932 (80.52), *maa://20106 (62.5), *maa://26209 (13.64), *maa://22769 (68.0)</t>
-  </si>
-  <si>
     <t>maa://24621 (96.81), maa://20108 (95.69), maa://22771 (90.91)</t>
   </si>
   <si>
-    <t>maa://30511 (90.0), *maa://29760 (37.5)</t>
+    <t>maa://35568 (100.0), maa://24632 (94.95), maa://33777 (100.0), *maa://32337 (75.0), maa://31167 (100.0), maa://21178 (92.86), **maa://24303 (33.33), maa://22746 (100.0), maa://22499 (81.82), maa://21197 (100.0), maa://21210 (100.0), maa://21155 (100.0)</t>
+  </si>
+  <si>
+    <t>**maa://32237 (42.11), ***maa://25695 (17.04)</t>
+  </si>
+  <si>
+    <t>maa://21432 (90.68), maa://25198 (96.92), **maa://20795 (46.09)</t>
+  </si>
+  <si>
+    <t>maa://23842 (92.77), maa://23848 (90.74), maa://23861 (81.82), maa://23862 (100.0), **maa://28036 (31.11), **maa://23850 (50.0), **maa://23879 (41.18), **maa://23946 (50.0), **maa://23864 (33.33)</t>
+  </si>
+  <si>
+    <t>*为好评率不高于80%,**为好评率不高于50%，***为好评率不高于30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*maa://21248 (75.5), **maa://22728 (48.15)</t>
+  </si>
+  <si>
+    <t>maa://25236 (94.12), **maa://21678 (50.0), **maa://22735 (50.0)</t>
+  </si>
+  <si>
+    <t>*maa://29063 (79.49), *maa://25311 (77.78), maa://32845 (100.0), ***maa://22725 (4.92), maa://32405 (100.0), maa://29054 (100.0), maa://20690 (92.86), *maa://20982 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://34494 (100.0), **maa://21283 (48.61)</t>
+  </si>
+  <si>
+    <t>maa://32721 (100.0), ***maa://24373 (28.57)</t>
+  </si>
+  <si>
+    <t>maa://21895 (96.77), **maa://20793 (38.78), maa://22760 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://21229 (85.71), maa://30807 (96.88), *maa://22767 (52.94), ***maa://20796 (14.29)</t>
+  </si>
+  <si>
+    <t>maa://35931 (95.83)</t>
+  </si>
+  <si>
+    <t>maa://32534 (92.26), **maa://32434 (36.84)</t>
+  </si>
+  <si>
+    <t>maa://34787 (88.89), *maa://30515 (71.76), *maa://24633 (53.79), ***maa://20792 (12.0), ***maa://29083 (28.57)</t>
+  </si>
+  <si>
+    <t>**maa://24395 (47.06)</t>
+  </si>
+  <si>
+    <t>maa://22325 (96.03), maa://28347 (98.95), maa://22466 (93.1), maa://22400 (93.44), **maa://22732 (48.28), maa://31374 (100.0), maa://30096 (100.0), *maa://27023 (80.0), maa://21182 (100.0), maa://21213 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://23250 (97.81), maa://20107 (86.67), maa://22772 (100.0), **maa://22745 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://30587 (90.6), *maa://29748 (72.97), ***maa://29785 (15.38)</t>
+  </si>
+  <si>
+    <t>**maa://30050 (40.0), *maa://23168 (63.16)</t>
+  </si>
+  <si>
+    <t>**maa://35616 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://24617 (84.93), **maa://20790 (42.62)</t>
+  </si>
+  <si>
+    <t>maa://32509 (100.0), *maa://31008 (76.32), *maa://27295 (80.0), maa://22754 (92.86), *maa://21746 (55.81)</t>
+  </si>
+  <si>
+    <t>**maa://22866 (32.65), maa://26222 (94.12)</t>
+  </si>
+  <si>
+    <t>maa://27395 (96.91), maa://22755 (86.9), **maa://22756 (42.86), ***maa://21737 (10.61)</t>
+  </si>
+  <si>
+    <t>maa://24010 (84.72), maa://24021 (90.15), *maa://24018 (70.0), maa://34408 (100.0), maa://20109 (93.29), maa://22466 (93.1), maa://24037 (81.25), maa://22545 (100.0), **maa://22732 (48.28), ***maa://24011 (28.0), *maa://24020 (66.67), **maa://31614 (33.33), maa://24105 (100.0), **maa://24038 (40.0), maa://31114 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://21917 (96.15), *maa://22741 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://29988 (89.76), maa://23504 (92.17), *maa://25141 (75.73), **maa://22892 (37.6), ***maa://22815 (25.0)</t>
+  </si>
+  <si>
+    <t>**maa://32658 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://29863 (82.35), **maa://26013 (50.0), ***maa://22752 (15.38)</t>
+  </si>
+  <si>
+    <t>maa://28711 (88.89), ***maa://22740 (6.0), **maa://27377 (45.45), ***maa://25174 (20.0)</t>
+  </si>
+  <si>
+    <t>*maa://21443 (76.4), ***maa://23820 (28.57)</t>
+  </si>
+  <si>
+    <t>***maa://21730 (16.67), maa://25251 (93.88)</t>
+  </si>
+  <si>
+    <t>*maa://30062 (57.69), ***maa://26209 (13.64)</t>
+  </si>
+  <si>
+    <t>*maa://33152 (58.33), ***maa://22770 (28.57)</t>
+  </si>
+  <si>
+    <t>maa://26206 (95.56), **maa://22865 (42.86)</t>
+  </si>
+  <si>
+    <t>maa://31203 (92.31), ***maa://24394 (16.0)</t>
+  </si>
+  <si>
+    <t>*maa://30062 (57.69), maa://28932 (80.52), *maa://20106 (62.5), ***maa://26209 (13.64), *maa://22769 (68.0)</t>
+  </si>
+  <si>
+    <t>***maa://22737 (27.84)</t>
+  </si>
+  <si>
+    <t>*maa://21364 (80.0), *maa://22766 (72.34)</t>
+  </si>
+  <si>
+    <t>*maa://24313 (55.12), **maa://29784 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://29910 (95.83), maa://22523 (86.06), **maa://21440 (34.55)</t>
+  </si>
+  <si>
+    <t>maa://30511 (90.0), **maa://29760 (37.5)</t>
+  </si>
+  <si>
+    <t>***maa://34960 (16.67), *maa://24080 (66.79), maa://24690 (95.24), maa://26956 (100.0), maa://24815 (100.0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1657,6 +1657,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1684,7 +1692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1703,6 +1711,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1987,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2109,16 +2120,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>125</v>
@@ -2127,16 +2138,16 @@
         <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>392</v>
+        <v>500</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>157</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>203</v>
@@ -2145,16 +2156,16 @@
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>268</v>
@@ -2163,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>295</v>
@@ -2172,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2192,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>126</v>
@@ -2201,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>158</v>
@@ -2210,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>204</v>
@@ -2219,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>437</v>
+        <v>507</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>243</v>
@@ -2228,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>269</v>
@@ -2237,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>296</v>
@@ -2246,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -2257,34 +2268,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>341</v>
+        <v>486</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>159</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>205</v>
@@ -2293,16 +2304,16 @@
         <v>5</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>438</v>
+        <v>508</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>244</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>270</v>
@@ -2311,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>297</v>
@@ -2320,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -2331,16 +2342,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>128</v>
@@ -2349,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>160</v>
@@ -2358,16 +2369,16 @@
         <v>2</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>245</v>
@@ -2376,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>271</v>
@@ -2385,16 +2396,16 @@
         <v>3</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>298</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -2402,10 +2413,10 @@
         <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>71</v>
@@ -2414,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>129</v>
@@ -2423,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>161</v>
@@ -2432,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>207</v>
@@ -2447,10 +2458,10 @@
         <v>246</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>272</v>
@@ -2459,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>299</v>
@@ -2468,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -2479,16 +2490,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>130</v>
@@ -2497,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>162</v>
@@ -2506,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>208</v>
@@ -2515,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>247</v>
@@ -2524,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>273</v>
@@ -2542,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -2553,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
@@ -2562,16 +2573,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>131</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>163</v>
@@ -2580,16 +2591,16 @@
         <v>4</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>209</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>248</v>
@@ -2598,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>274</v>
@@ -2607,7 +2618,7 @@
         <v>14</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>301</v>
@@ -2616,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -2627,7 +2638,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
@@ -2645,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>164</v>
@@ -2654,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>210</v>
@@ -2663,7 +2674,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>440</v>
+        <v>509</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>249</v>
@@ -2672,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>275</v>
@@ -2681,7 +2692,7 @@
         <v>4</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>302</v>
@@ -2690,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -2701,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>75</v>
@@ -2710,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>133</v>
@@ -2719,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>398</v>
+        <v>501</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>165</v>
@@ -2728,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>211</v>
@@ -2737,7 +2748,7 @@
         <v>4</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>441</v>
+        <v>510</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>250</v>
@@ -2746,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>276</v>
@@ -2755,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>303</v>
@@ -2764,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -2772,19 +2783,19 @@
         <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>134</v>
@@ -2793,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>166</v>
@@ -2811,16 +2822,16 @@
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>251</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>277</v>
@@ -2829,7 +2840,7 @@
         <v>3</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>304</v>
@@ -2838,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -2849,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>77</v>
@@ -2858,16 +2869,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>167</v>
@@ -2882,10 +2893,10 @@
         <v>213</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>252</v>
@@ -2894,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>278</v>
@@ -2903,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>305</v>
@@ -2912,7 +2923,7 @@
         <v>5</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -2923,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>78</v>
@@ -2932,16 +2943,16 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>168</v>
@@ -2950,7 +2961,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>214</v>
@@ -2959,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>253</v>
@@ -2968,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>279</v>
@@ -2977,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>306</v>
@@ -2986,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -2997,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>79</v>
@@ -3006,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>137</v>
@@ -3015,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>169</v>
@@ -3024,7 +3035,7 @@
         <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>419</v>
+        <v>503</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>215</v>
@@ -3033,7 +3044,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>254</v>
@@ -3051,16 +3062,16 @@
         <v>1</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>307</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -3071,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>80</v>
@@ -3080,7 +3091,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>138</v>
@@ -3089,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>170</v>
@@ -3098,7 +3109,7 @@
         <v>6</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>216</v>
@@ -3107,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>255</v>
@@ -3122,10 +3133,10 @@
         <v>281</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>308</v>
@@ -3134,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -3145,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>81</v>
@@ -3163,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>171</v>
@@ -3172,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>217</v>
@@ -3181,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>256</v>
@@ -3190,7 +3201,7 @@
         <v>2</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>282</v>
@@ -3199,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>309</v>
@@ -3208,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -3219,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>82</v>
@@ -3228,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>140</v>
@@ -3237,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>172</v>
@@ -3246,43 +3257,43 @@
         <v>4</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>218</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>257</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>283</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>310</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -3293,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>83</v>
@@ -3302,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>141</v>
@@ -3311,7 +3322,7 @@
         <v>10</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>173</v>
@@ -3320,7 +3331,7 @@
         <v>15</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>219</v>
@@ -3329,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>258</v>
@@ -3338,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>284</v>
@@ -3347,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>311</v>
@@ -3356,7 +3367,7 @@
         <v>2</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -3364,10 +3375,10 @@
         <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>84</v>
@@ -3391,10 +3402,10 @@
         <v>174</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>220</v>
@@ -3403,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>259</v>
@@ -3412,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>285</v>
@@ -3421,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>312</v>
@@ -3430,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -3441,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>352</v>
+        <v>488</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -3450,25 +3461,25 @@
         <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>175</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>221</v>
@@ -3477,34 +3488,34 @@
         <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>260</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>286</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>313</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -3515,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
@@ -3524,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>144</v>
@@ -3533,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>176</v>
@@ -3542,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>222</v>
@@ -3551,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>261</v>
@@ -3560,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>287</v>
@@ -3569,7 +3580,7 @@
         <v>2</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>314</v>
@@ -3578,7 +3589,7 @@
         <v>2</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -3586,10 +3597,10 @@
         <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>87</v>
@@ -3598,7 +3609,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>370</v>
+        <v>492</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>145</v>
@@ -3607,16 +3618,16 @@
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>177</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>223</v>
@@ -3631,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>288</v>
@@ -3640,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>315</v>
@@ -3649,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -3660,25 +3671,25 @@
         <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>146</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>178</v>
@@ -3687,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>424</v>
+        <v>504</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>224</v>
@@ -3696,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>263</v>
@@ -3705,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>289</v>
@@ -3714,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>316</v>
@@ -3723,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -3734,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>89</v>
@@ -3749,28 +3760,28 @@
         <v>147</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>179</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>225</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>264</v>
@@ -3779,7 +3790,7 @@
         <v>5</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>290</v>
@@ -3797,7 +3808,7 @@
         <v>3</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -3808,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>90</v>
@@ -3817,7 +3828,7 @@
         <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>371</v>
+        <v>493</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>148</v>
@@ -3826,7 +3837,7 @@
         <v>7</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>180</v>
@@ -3835,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>226</v>
@@ -3844,7 +3855,7 @@
         <v>15</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>265</v>
@@ -3853,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>291</v>
@@ -3862,7 +3873,7 @@
         <v>3</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>318</v>
@@ -3871,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>528</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -3879,10 +3890,10 @@
         <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>91</v>
@@ -3891,16 +3902,16 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>181</v>
@@ -3909,16 +3920,16 @@
         <v>1</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>227</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>266</v>
@@ -3927,16 +3938,16 @@
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>292</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC26" s="4" t="s">
         <v>319</v>
@@ -3945,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -3953,10 +3964,10 @@
         <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>92</v>
@@ -3965,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>373</v>
+        <v>494</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>150</v>
@@ -3974,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>182</v>
@@ -3992,25 +4003,25 @@
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>267</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>293</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>320</v>
@@ -4019,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -4030,16 +4041,16 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>151</v>
@@ -4048,16 +4059,16 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>183</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>229</v>
@@ -4066,34 +4077,34 @@
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>294</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>321</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -4104,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>94</v>
@@ -4113,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>152</v>
@@ -4122,7 +4133,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>184</v>
@@ -4131,7 +4142,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>427</v>
+        <v>505</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>230</v>
@@ -4140,25 +4151,25 @@
         <v>4</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>322</v>
@@ -4167,7 +4178,7 @@
         <v>5</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -4175,10 +4186,10 @@
         <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>95</v>
@@ -4196,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>185</v>
@@ -4205,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>231</v>
@@ -4214,34 +4225,34 @@
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>323</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
@@ -4249,10 +4260,10 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>96</v>
@@ -4261,7 +4272,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>375</v>
+        <v>495</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>154</v>
@@ -4270,16 +4281,16 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>232</v>
@@ -4288,25 +4299,25 @@
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>324</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
@@ -4317,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>376</v>
+        <v>496</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>155</v>
@@ -4326,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>187</v>
@@ -4335,16 +4346,16 @@
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>233</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>325</v>
@@ -4370,10 +4381,10 @@
         <v>156</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>188</v>
@@ -4382,7 +4393,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>234</v>
@@ -4397,10 +4408,10 @@
         <v>17</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
@@ -4408,28 +4419,28 @@
         <v>99</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>189</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>235</v>
@@ -4438,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>20</v>
@@ -4447,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>513</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4455,28 +4466,28 @@
         <v>100</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>236</v>
@@ -4485,10 +4496,10 @@
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AD35" s="1">
         <v>0</v>
@@ -4505,25 +4516,25 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>237</v>
@@ -4532,16 +4543,16 @@
         <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
@@ -4552,16 +4563,16 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>192</v>
@@ -4570,7 +4581,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>238</v>
@@ -4582,38 +4593,38 @@
         <v>66</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
       <c r="E38" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>193</v>
@@ -4622,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>239</v>
@@ -4631,22 +4642,22 @@
         <v>1</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
       <c r="E39" s="1" t="s">
         <v>104</v>
       </c>
@@ -4654,7 +4665,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>194</v>
@@ -4663,21 +4674,21 @@
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>240</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4685,10 +4696,10 @@
         <v>105</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>195</v>
@@ -4697,16 +4708,16 @@
         <v>2</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>241</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4720,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>196</v>
@@ -4729,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>435</v>
+        <v>506</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>242</v>
@@ -4743,7 +4754,7 @@
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -4751,10 +4762,10 @@
         <v>107</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>197</v>
@@ -4769,10 +4780,10 @@
         <v>22</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4786,25 +4797,25 @@
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
@@ -4818,25 +4829,25 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
@@ -4850,7 +4861,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>383</v>
+        <v>497</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>200</v>
@@ -4862,18 +4873,18 @@
         <v>66</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -4884,16 +4895,16 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>384</v>
+        <v>498</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>201</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
@@ -4907,16 +4918,16 @@
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>202</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
@@ -4927,24 +4938,24 @@
         <v>113</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>514</v>
+        <v>477</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -4952,19 +4963,19 @@
         <v>114</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -4975,19 +4986,19 @@
         <v>115</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -4998,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -5009,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -5020,7 +5031,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>388</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -5042,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -5050,10 +5061,10 @@
         <v>121</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -5064,7 +5075,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -5086,7 +5097,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -5094,10 +5105,10 @@
         <v>15</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -5105,10 +5116,10 @@
         <v>24</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -5116,10 +5127,10 @@
         <v>28</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -5127,10 +5138,10 @@
         <v>29</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -5138,10 +5149,10 @@
         <v>32</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.2">
@@ -5149,10 +5160,10 @@
         <v>33</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.2">
@@ -5160,43 +5171,43 @@
         <v>38</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E67" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E68" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E69" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
